--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>163.9108346666667</v>
+        <v>9.861094666666666</v>
       </c>
       <c r="H2">
-        <v>491.732504</v>
+        <v>29.583284</v>
       </c>
       <c r="I2">
-        <v>0.8426759240348239</v>
+        <v>0.243709096397741</v>
       </c>
       <c r="J2">
-        <v>0.8426759240348242</v>
+        <v>0.2437090963977409</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N2">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O2">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P2">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q2">
-        <v>13761.69885190237</v>
+        <v>0.2901528494719999</v>
       </c>
       <c r="R2">
-        <v>123855.2896671213</v>
+        <v>2.611375645248</v>
       </c>
       <c r="S2">
-        <v>0.8409698834704274</v>
+        <v>0.0358998956300076</v>
       </c>
       <c r="T2">
-        <v>0.8409698834704277</v>
+        <v>0.0358998956300076</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>163.9108346666667</v>
+        <v>9.861094666666666</v>
       </c>
       <c r="H3">
-        <v>491.732504</v>
+        <v>29.583284</v>
       </c>
       <c r="I3">
-        <v>0.8426759240348239</v>
+        <v>0.243709096397741</v>
       </c>
       <c r="J3">
-        <v>0.8426759240348242</v>
+        <v>0.2437090963977409</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.510969</v>
       </c>
       <c r="O3">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P3">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q3">
-        <v>27.91778509293066</v>
+        <v>1.679571226910667</v>
       </c>
       <c r="R3">
-        <v>251.260065836376</v>
+        <v>15.116141042196</v>
       </c>
       <c r="S3">
-        <v>0.001706040564396511</v>
+        <v>0.2078092007677333</v>
       </c>
       <c r="T3">
-        <v>0.001706040564396512</v>
+        <v>0.2078092007677333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>88.060289</v>
       </c>
       <c r="I4">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154019</v>
       </c>
       <c r="J4">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154018</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N4">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O4">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P4">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q4">
-        <v>2464.468320014678</v>
+        <v>0.8636953145119999</v>
       </c>
       <c r="R4">
-        <v>22180.2148801321</v>
+        <v>7.773257830607998</v>
       </c>
       <c r="S4">
-        <v>0.1506023099475689</v>
+        <v>0.1068628886586191</v>
       </c>
       <c r="T4">
-        <v>0.1506023099475689</v>
+        <v>0.1068628886586191</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>88.060289</v>
       </c>
       <c r="I5">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154019</v>
       </c>
       <c r="J5">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154018</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,10 +744,10 @@
         <v>0.510969</v>
       </c>
       <c r="O5">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P5">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q5">
         <v>4.999564201115667</v>
@@ -756,10 +756,10 @@
         <v>44.996077810041</v>
       </c>
       <c r="S5">
-        <v>0.00030552063149049</v>
+        <v>0.6185837338567828</v>
       </c>
       <c r="T5">
-        <v>0.00030552063149049</v>
+        <v>0.6185837338567827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.744116</v>
       </c>
       <c r="I6">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685718</v>
       </c>
       <c r="J6">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685716</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N6">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O6">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P6">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q6">
-        <v>104.7833861692196</v>
+        <v>0.036722289728</v>
       </c>
       <c r="R6">
-        <v>943.0504755229759</v>
+        <v>0.3305006075519999</v>
       </c>
       <c r="S6">
-        <v>0.006403255368735526</v>
+        <v>0.004543558234665279</v>
       </c>
       <c r="T6">
-        <v>0.006403255368735527</v>
+        <v>0.004543558234665277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.744116</v>
       </c>
       <c r="I7">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685718</v>
       </c>
       <c r="J7">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685716</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>0.510969</v>
       </c>
       <c r="O7">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P7">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q7">
         <v>0.2125696898226667</v>
@@ -880,10 +880,10 @@
         <v>1.913127208404</v>
       </c>
       <c r="S7">
-        <v>1.299001738108817E-05</v>
+        <v>0.0263007228521919</v>
       </c>
       <c r="T7">
-        <v>1.299001738108817E-05</v>
+        <v>0.02630072285219189</v>
       </c>
     </row>
   </sheetData>
